--- a/src/public/files/sample-create-units.xlsx
+++ b/src/public/files/sample-create-units.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clone\Education_DACN\src\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C924972C-03B5-490F-A73D-70F2A8F300AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A4709B-DE33-4F2D-826F-2A5028A04C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1392" yWindow="588" windowWidth="20628" windowHeight="11328" xr2:uid="{ACA4A631-7668-4624-8DB6-0BF0E4D74A08}"/>
+    <workbookView xWindow="-24480" yWindow="2565" windowWidth="17280" windowHeight="9465" xr2:uid="{ACA4A631-7668-4624-8DB6-0BF0E4D74A08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Chương</t>
   </si>
@@ -40,19 +33,16 @@
     <t>Tên chuyên đề</t>
   </si>
   <si>
-    <t>ỨNG DỤNG ĐẠO HÀM ĐỂ KHẢO SÁT VÀ VẼ ĐỒ THỊ HÀM SỐ</t>
+    <t>Chúa Giêsu Dạy Ta Biết Thiên Chúa Là Cha Yêu Thương</t>
   </si>
   <si>
-    <t>Môn: Toán Học 12</t>
+    <t>Thiên Chúa Là Cha</t>
   </si>
   <si>
-    <t>HÀM SỐ LŨY THỪA, HÀM SỐ MŨ VÀ HÀM SỐ LÔGARIT</t>
+    <t>Thiên Chúa Yêu Thương Chúng Ta, Tạo Nên Mọi Loài Mọi Vật</t>
   </si>
   <si>
-    <t>NGUYÊN HÀM, TÍCH PHÂN VÀ ỨNG DỤNG</t>
-  </si>
-  <si>
-    <t>SỐ PHỨC</t>
+    <t xml:space="preserve"> Thiên Chúa Yêu Thương Tạo Nên Loài Người</t>
   </si>
 </sst>
 </file>
@@ -447,7 +437,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,9 +459,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -501,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -517,7 +505,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -526,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2"/>
     </row>
